--- a/va_facility_data_2025-02-20/Rancho Cucamonga VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rancho%20Cucamonga%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rancho Cucamonga VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rancho%20Cucamonga%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd521525ae0a749c58336335192eae42d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R47c07da521d64a4eb85edcca0fe6fd80"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ref90318a7dda4b41804acb474e79a058"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R896f8dc3c13a46c09f41e1dbb77e3e17"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf8569226671c46d2ba544ba68a8b90c4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3cebf33159d4415e8d3b54400f1511b9"/>
   </x:sheets>
 </x:workbook>
 </file>
